--- a/# DOSSIER FINAL #/Administration_Projet/A1_Fondamentaux_Scientifiques_2017_2018_PROJET_Grille_Evaluation_ETUDIANT.xlsx
+++ b/# DOSSIER FINAL #/Administration_Projet/A1_Fondamentaux_Scientifiques_2017_2018_PROJET_Grille_Evaluation_ETUDIANT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1872198\Desktop\CardioFreq\Administration_Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1872198\Documents\GitHub\Projet-Fondamentaux-Scientifiques\# DOSSIER FINAL #\Administration_Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,7 @@
     <sheet name="GRILLE PROJET A1 - SYST ET PROG" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
@@ -506,7 +507,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,8 +632,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -690,6 +702,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF006600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,7 +975,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1038,19 +1056,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1062,107 +1180,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1686,7 +1707,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1700,10 +1721,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
@@ -1715,19 +1736,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="1:5" ht="25.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="51" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -1736,330 +1757,330 @@
       <c r="D3" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="40" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.600000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="32" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="51" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="52"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:5" ht="19.899999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="52"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5" ht="19.899999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="5" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="52"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="52"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:5" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="39" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="50" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="52"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:5" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="39"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="52"/>
+      <c r="E9" s="41"/>
     </row>
     <row r="10" spans="1:5" ht="16.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="5" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="52"/>
+      <c r="E10" s="41"/>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="32" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="51" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="52"/>
+      <c r="E11" s="41"/>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="52"/>
+      <c r="E12" s="41"/>
     </row>
     <row r="13" spans="1:5" ht="17.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="52"/>
+      <c r="E13" s="41"/>
     </row>
     <row r="14" spans="1:5" ht="17.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="5" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="52"/>
+      <c r="E14" s="41"/>
     </row>
     <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="52"/>
+      <c r="E15" s="41"/>
     </row>
     <row r="16" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
     </row>
     <row r="17" spans="1:5" ht="14.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="42" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="5" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="54"/>
+      <c r="E18" s="43"/>
     </row>
     <row r="19" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="5" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="54"/>
+      <c r="E19" s="43"/>
     </row>
     <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="5" t="s">
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="54"/>
+      <c r="E20" s="43"/>
     </row>
     <row r="21" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="54"/>
+      <c r="E21" s="43"/>
     </row>
     <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="32" t="s">
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="54"/>
+      <c r="E22" s="43"/>
     </row>
     <row r="23" spans="1:5" ht="25.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="5" t="s">
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="54"/>
+      <c r="E23" s="43"/>
     </row>
     <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="5" t="s">
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="54"/>
+      <c r="E24" s="43"/>
     </row>
     <row r="25" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="54"/>
+      <c r="E25" s="43"/>
     </row>
     <row r="26" spans="1:5" ht="22.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="5" t="s">
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="54"/>
+      <c r="E26" s="43"/>
     </row>
     <row r="27" spans="1:5" ht="23.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="5" t="s">
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="54"/>
+      <c r="E27" s="43"/>
     </row>
     <row r="28" spans="1:5" ht="51" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="54"/>
+      <c r="E28" s="43"/>
     </row>
     <row r="29" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="32" t="s">
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="51" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="54"/>
+      <c r="E29" s="43"/>
     </row>
     <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="54"/>
+      <c r="E30" s="43"/>
     </row>
     <row r="31" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="54"/>
+      <c r="E31" s="43"/>
     </row>
     <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="39" t="s">
+      <c r="A37" s="52"/>
+      <c r="B37" s="50" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="13" t="s">
@@ -2071,8 +2092,8 @@
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="39"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="2" t="s">
         <v>0</v>
       </c>
@@ -2082,71 +2103,71 @@
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="57"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="46"/>
     </row>
     <row r="40" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="44"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="53" t="s">
+      <c r="E40" s="42" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="9" t="s">
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="54"/>
+      <c r="E41" s="43"/>
     </row>
     <row r="42" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="54"/>
+      <c r="E42" s="43"/>
     </row>
     <row r="43" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="50"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="36"/>
       <c r="D43" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="54"/>
+      <c r="E43" s="43"/>
     </row>
     <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="35"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="49"/>
     </row>
     <row r="45" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="39"/>
     </row>
     <row r="46" spans="1:5" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
@@ -2200,25 +2221,32 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="35"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="49"/>
     </row>
     <row r="50" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="41"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:A38"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B37:B38"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="A40:C43"/>
     <mergeCell ref="A45:E45"/>
@@ -2235,13 +2263,6 @@
     <mergeCell ref="B17:B36"/>
     <mergeCell ref="C22:C27"/>
     <mergeCell ref="C29:C36"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A17:A38"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B37:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="92" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/# DOSSIER FINAL #/Administration_Projet/A1_Fondamentaux_Scientifiques_2017_2018_PROJET_Grille_Evaluation_ETUDIANT.xlsx
+++ b/# DOSSIER FINAL #/Administration_Projet/A1_Fondamentaux_Scientifiques_2017_2018_PROJET_Grille_Evaluation_ETUDIANT.xlsx
@@ -476,6 +476,9 @@
     <t>Le code Arduino récupère les informations du récepteur IR</t>
   </si>
   <si>
+    <t>Chaque LED peut être contrôlée de façon indépendante</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Une </t>
     </r>
@@ -483,7 +486,7 @@
       <rPr>
         <i/>
         <sz val="8"/>
-        <color rgb="FF000000"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -492,15 +495,12 @@
     <r>
       <rPr>
         <sz val="8"/>
-        <color rgb="FF000000"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> a été créée pour stocker l'information d'une ligne</t>
     </r>
-  </si>
-  <si>
-    <t>Chaque LED peut être contrôlée de façon indépendante</t>
   </si>
 </sst>
 </file>
@@ -563,13 +563,6 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -643,8 +636,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,6 +708,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,7 +981,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1020,22 +1026,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1056,14 +1068,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1100,90 +1168,37 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1624,69 +1639,69 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1707,7 +1722,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1721,10 +1736,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
@@ -1736,351 +1751,351 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" ht="25.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="34" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.600000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="51" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" ht="19.899999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="58" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="41"/>
+      <c r="E5" s="54"/>
     </row>
     <row r="6" spans="1:5" ht="19.899999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="58" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="41"/>
+      <c r="E6" s="54"/>
     </row>
     <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="58" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="41"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:5" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="50" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="41"/>
+      <c r="E8" s="54"/>
     </row>
     <row r="9" spans="1:5" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="58" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="41"/>
+      <c r="E9" s="54"/>
     </row>
     <row r="10" spans="1:5" ht="16.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="58" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="41"/>
+      <c r="E10" s="54"/>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="51" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="41"/>
+      <c r="E11" s="54"/>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="5" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="41"/>
+      <c r="E12" s="54"/>
     </row>
     <row r="13" spans="1:5" ht="17.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="5" t="s">
+      <c r="A13" s="47"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="41"/>
+      <c r="E13" s="54"/>
     </row>
     <row r="14" spans="1:5" ht="17.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="58" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="41"/>
+      <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="5" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="41"/>
+      <c r="E15" s="54"/>
     </row>
     <row r="16" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
     </row>
     <row r="17" spans="1:5" ht="14.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="55" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="58" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="43"/>
+      <c r="E18" s="56"/>
     </row>
     <row r="19" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="58" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="43"/>
+      <c r="E19" s="56"/>
     </row>
     <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="59" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="43"/>
+      <c r="E20" s="56"/>
     </row>
     <row r="21" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="43"/>
+      <c r="E21" s="56"/>
     </row>
     <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="51" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="43"/>
+      <c r="D22" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="56"/>
     </row>
     <row r="23" spans="1:5" ht="25.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="59" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="43"/>
+      <c r="E23" s="56"/>
     </row>
     <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="58" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="43"/>
+      <c r="E24" s="56"/>
     </row>
     <row r="25" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="56"/>
     </row>
     <row r="26" spans="1:5" ht="22.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="58" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="56"/>
     </row>
     <row r="27" spans="1:5" ht="23.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="58" t="s">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="43"/>
+      <c r="E27" s="56"/>
     </row>
     <row r="28" spans="1:5" ht="51" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="43"/>
+      <c r="E28" s="56"/>
     </row>
     <row r="29" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="51" t="s">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="34" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="56"/>
     </row>
     <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="43"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="56"/>
     </row>
     <row r="31" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="5" t="s">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="43"/>
+      <c r="E31" s="56"/>
     </row>
     <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="5" t="s">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="60" t="s">
         <v>61</v>
       </c>
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="5" t="s">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="62" t="s">
         <v>66</v>
       </c>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="5" t="s">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="60" t="s">
         <v>58</v>
       </c>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="5" t="s">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="62" t="s">
         <v>59</v>
       </c>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="5" t="s">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="61" t="s">
         <v>73</v>
       </c>
       <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
-      <c r="B37" s="50" t="s">
+      <c r="A37" s="30"/>
+      <c r="B37" s="41" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="13" t="s">
@@ -2092,8 +2107,8 @@
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="50"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="2" t="s">
         <v>0</v>
       </c>
@@ -2103,71 +2118,71 @@
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="46"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="59"/>
     </row>
     <row r="40" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="30"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="55" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="58" t="s">
+      <c r="A41" s="47"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="43"/>
+      <c r="E41" s="56"/>
     </row>
     <row r="42" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="33"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="43"/>
+      <c r="E42" s="56"/>
     </row>
     <row r="43" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="36"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="43"/>
+      <c r="E43" s="56"/>
     </row>
     <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="49"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="37"/>
     </row>
     <row r="45" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="39"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="40"/>
     </row>
     <row r="46" spans="1:5" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
@@ -2221,32 +2236,25 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="49"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="37"/>
     </row>
     <row r="50" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="27"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A17:A38"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B37:B38"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="A40:C43"/>
     <mergeCell ref="A45:E45"/>
@@ -2263,6 +2271,13 @@
     <mergeCell ref="B17:B36"/>
     <mergeCell ref="C22:C27"/>
     <mergeCell ref="C29:C36"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:A38"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B37:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="92" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/# DOSSIER FINAL #/Administration_Projet/A1_Fondamentaux_Scientifiques_2017_2018_PROJET_Grille_Evaluation_ETUDIANT.xlsx
+++ b/# DOSSIER FINAL #/Administration_Projet/A1_Fondamentaux_Scientifiques_2017_2018_PROJET_Grille_Evaluation_ETUDIANT.xlsx
@@ -407,20 +407,6 @@
   </si>
   <si>
     <r>
-      <t>Dans tous les modules (code Arduino ou code C)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Tous les livrables ont été réalisés et ils sont de qualité.</t>
     </r>
     <r>
@@ -502,12 +488,15 @@
       <t xml:space="preserve"> a été créée pour stocker l'information d'une ligne</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Dans tous les modules (code Arduino ou code C) </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,11 +621,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="8"/>
       <color theme="0"/>
@@ -644,7 +628,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,12 +667,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92CDDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -702,12 +680,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF006600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,7 +953,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -996,42 +968,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1068,19 +1037,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1091,115 +1160,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1639,69 +1599,69 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="21"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="24"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1722,7 +1682,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1736,10 +1696,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
@@ -1760,420 +1720,420 @@
       <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" ht="25.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.600000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="42"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.899999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.600000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="34" t="s">
+      <c r="E5" s="42"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.899999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="42"/>
+    </row>
+    <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="42"/>
+    </row>
+    <row r="8" spans="1:5" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="42"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="42"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="42"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="42"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="42"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="42"/>
+    </row>
+    <row r="16" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+    </row>
+    <row r="17" spans="1:5" ht="14.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="44"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="44"/>
+    </row>
+    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="44"/>
+    </row>
+    <row r="21" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="44"/>
+    </row>
+    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="54"/>
-    </row>
-    <row r="5" spans="1:5" ht="19.899999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="54"/>
-    </row>
-    <row r="6" spans="1:5" ht="19.899999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="54"/>
-    </row>
-    <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="54"/>
-    </row>
-    <row r="8" spans="1:5" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="41" t="s">
+      <c r="D22" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="44"/>
+    </row>
+    <row r="23" spans="1:5" ht="25.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="44"/>
+    </row>
+    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="44"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="44"/>
+    </row>
+    <row r="26" spans="1:5" ht="22.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="44"/>
+    </row>
+    <row r="27" spans="1:5" ht="23.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="44"/>
+    </row>
+    <row r="28" spans="1:5" ht="51" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="54"/>
-    </row>
-    <row r="9" spans="1:5" ht="19.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="54"/>
-    </row>
-    <row r="10" spans="1:5" ht="16.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="54"/>
-    </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="34" t="s">
+      <c r="D28" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="44"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="54"/>
-    </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="54"/>
-    </row>
-    <row r="13" spans="1:5" ht="17.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="54"/>
-    </row>
-    <row r="14" spans="1:5" ht="17.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="54"/>
-    </row>
-    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="54"/>
-    </row>
-    <row r="16" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-    </row>
-    <row r="17" spans="1:5" ht="14.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="56"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="56"/>
-    </row>
-    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="56"/>
-    </row>
-    <row r="21" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="56"/>
-    </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="14" t="s">
+      <c r="D29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="44"/>
+    </row>
+    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="56"/>
-    </row>
-    <row r="23" spans="1:5" ht="25.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="56"/>
-    </row>
-    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="56"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="56"/>
-    </row>
-    <row r="26" spans="1:5" ht="22.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="56"/>
-    </row>
-    <row r="27" spans="1:5" ht="23.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="56"/>
-    </row>
-    <row r="28" spans="1:5" ht="51" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="56"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="56"/>
-    </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="14" t="s">
+      <c r="E30" s="44"/>
+    </row>
+    <row r="31" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="44"/>
+    </row>
+    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="53"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="53"/>
+      <c r="B37" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="56"/>
-    </row>
-    <row r="31" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="56"/>
-    </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="12"/>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="41"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="47"/>
+    </row>
+    <row r="40" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="59"/>
-    </row>
-    <row r="40" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="55" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="41" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="14" t="s">
+      <c r="A41" s="32"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="56"/>
+      <c r="E41" s="44"/>
     </row>
     <row r="42" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="9" t="s">
+      <c r="A42" s="32"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="56"/>
+      <c r="E42" s="44"/>
     </row>
     <row r="43" spans="1:5" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="9" t="s">
+      <c r="A43" s="35"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="56"/>
+      <c r="E43" s="44"/>
     </row>
     <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="37"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="50"/>
     </row>
     <row r="45" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
@@ -2185,76 +2145,83 @@
       <c r="E45" s="40"/>
     </row>
     <row r="46" spans="1:5" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="78.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="78.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="6" t="s">
+      <c r="E47" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E48" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="37"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="50"/>
     </row>
     <row r="50" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="43"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A17:A38"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B37:B38"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="A40:C43"/>
     <mergeCell ref="A45:E45"/>
@@ -2271,13 +2238,6 @@
     <mergeCell ref="B17:B36"/>
     <mergeCell ref="C22:C27"/>
     <mergeCell ref="C29:C36"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A17:A38"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B37:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="92" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/# DOSSIER FINAL #/Administration_Projet/A1_Fondamentaux_Scientifiques_2017_2018_PROJET_Grille_Evaluation_ETUDIANT.xlsx
+++ b/# DOSSIER FINAL #/Administration_Projet/A1_Fondamentaux_Scientifiques_2017_2018_PROJET_Grille_Evaluation_ETUDIANT.xlsx
@@ -1681,8 +1681,8 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1985,7 +1985,7 @@
       <c r="C29" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>56</v>
       </c>
       <c r="E29" s="44"/>
@@ -2012,7 +2012,7 @@
       <c r="A32" s="53"/>
       <c r="B32" s="53"/>
       <c r="C32" s="53"/>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>61</v>
       </c>
       <c r="E32" s="9"/>
@@ -2021,7 +2021,7 @@
       <c r="A33" s="53"/>
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="13" t="s">
         <v>66</v>
       </c>
       <c r="E33" s="9"/>
@@ -2039,7 +2039,7 @@
       <c r="A35" s="53"/>
       <c r="B35" s="53"/>
       <c r="C35" s="53"/>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E35" s="9"/>
@@ -2061,7 +2061,7 @@
       <c r="C37" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>79</v>
       </c>
       <c r="E37" s="10"/>
@@ -2121,7 +2121,7 @@
       <c r="A43" s="35"/>
       <c r="B43" s="36"/>
       <c r="C43" s="37"/>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="14" t="s">
         <v>60</v>
       </c>
       <c r="E43" s="44"/>
